--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
   </si>
   <si>
     <t>Ephb2</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.553248197479317</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H2">
-        <v>0.553248197479317</v>
+        <v>0.189466</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.08692959137136654</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.08692959137136655</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.61943011543085</v>
+        <v>0.013267</v>
       </c>
       <c r="N2">
-        <v>5.61943011543085</v>
+        <v>0.039801</v>
       </c>
       <c r="O2">
-        <v>0.9258830254738862</v>
+        <v>0.002082344506138891</v>
       </c>
       <c r="P2">
-        <v>0.9258830254738862</v>
+        <v>0.002082344506138891</v>
       </c>
       <c r="Q2">
-        <v>3.108939582223108</v>
+        <v>0.0008378818073333333</v>
       </c>
       <c r="R2">
-        <v>3.108939582223108</v>
+        <v>0.007540936266</v>
       </c>
       <c r="S2">
-        <v>0.9258830254738862</v>
+        <v>0.0001810173570130638</v>
       </c>
       <c r="T2">
-        <v>0.9258830254738862</v>
+        <v>0.0001810173570130638</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +590,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.06315533333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.189466</v>
+      </c>
+      <c r="I3">
+        <v>0.08692959137136654</v>
+      </c>
+      <c r="J3">
+        <v>0.08692959137136655</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>5.792929999999999</v>
+      </c>
+      <c r="N3">
+        <v>17.37879</v>
+      </c>
+      <c r="O3">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="P3">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="Q3">
+        <v>0.3658544251266666</v>
+      </c>
+      <c r="R3">
+        <v>3.29268982614</v>
+      </c>
+      <c r="S3">
+        <v>0.07903978879638861</v>
+      </c>
+      <c r="T3">
+        <v>0.07903978879638862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.06315533333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.189466</v>
+      </c>
+      <c r="I4">
+        <v>0.08692959137136654</v>
+      </c>
+      <c r="J4">
+        <v>0.08692959137136655</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.05870933333333334</v>
+      </c>
+      <c r="N4">
+        <v>0.176128</v>
+      </c>
+      <c r="O4">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="P4">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="Q4">
+        <v>0.003707807516444444</v>
+      </c>
+      <c r="R4">
+        <v>0.033370267648</v>
+      </c>
+      <c r="S4">
+        <v>0.0008010408044018217</v>
+      </c>
+      <c r="T4">
+        <v>0.0008010408044018218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.06315533333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.189466</v>
+      </c>
+      <c r="I5">
+        <v>0.08692959137136654</v>
+      </c>
+      <c r="J5">
+        <v>0.08692959137136655</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.5062776666666666</v>
+      </c>
+      <c r="N5">
+        <v>1.518833</v>
+      </c>
+      <c r="O5">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="P5">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="Q5">
+        <v>0.03197413479755555</v>
+      </c>
+      <c r="R5">
+        <v>0.287767213178</v>
+      </c>
+      <c r="S5">
+        <v>0.006907744413563044</v>
+      </c>
+      <c r="T5">
+        <v>0.006907744413563045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.028136</v>
+      </c>
+      <c r="H6">
+        <v>0.084408</v>
+      </c>
+      <c r="I6">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J6">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.013267</v>
+      </c>
+      <c r="N6">
+        <v>0.039801</v>
+      </c>
+      <c r="O6">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="P6">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="Q6">
+        <v>0.000373280312</v>
+      </c>
+      <c r="R6">
+        <v>0.003359522808</v>
+      </c>
+      <c r="S6">
+        <v>8.064408955041375E-05</v>
+      </c>
+      <c r="T6">
+        <v>8.064408955041375E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.028136</v>
+      </c>
+      <c r="H7">
+        <v>0.084408</v>
+      </c>
+      <c r="I7">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J7">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.792929999999999</v>
+      </c>
+      <c r="N7">
+        <v>17.37879</v>
+      </c>
+      <c r="O7">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="P7">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="Q7">
+        <v>0.16298987848</v>
+      </c>
+      <c r="R7">
+        <v>1.46690890632</v>
+      </c>
+      <c r="S7">
+        <v>0.03521260011150058</v>
+      </c>
+      <c r="T7">
+        <v>0.03521260011150058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.028136</v>
+      </c>
+      <c r="H8">
+        <v>0.084408</v>
+      </c>
+      <c r="I8">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J8">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.05870933333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.176128</v>
+      </c>
+      <c r="O8">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="P8">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="Q8">
+        <v>0.001651845802666667</v>
+      </c>
+      <c r="R8">
+        <v>0.014866612224</v>
+      </c>
+      <c r="S8">
+        <v>0.0003568674707754899</v>
+      </c>
+      <c r="T8">
+        <v>0.0003568674707754899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.028136</v>
+      </c>
+      <c r="H9">
+        <v>0.084408</v>
+      </c>
+      <c r="I9">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J9">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5062776666666666</v>
+      </c>
+      <c r="N9">
+        <v>1.518833</v>
+      </c>
+      <c r="O9">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="P9">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="Q9">
+        <v>0.01424462842933333</v>
+      </c>
+      <c r="R9">
+        <v>0.128201655864</v>
+      </c>
+      <c r="S9">
+        <v>0.003077432839981999</v>
+      </c>
+      <c r="T9">
+        <v>0.003077432839981999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.553248197479317</v>
-      </c>
-      <c r="H3">
-        <v>0.553248197479317</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.44983561341725</v>
-      </c>
-      <c r="N3">
-        <v>0.44983561341725</v>
-      </c>
-      <c r="O3">
-        <v>0.07411697452611378</v>
-      </c>
-      <c r="P3">
-        <v>0.07411697452611378</v>
-      </c>
-      <c r="Q3">
-        <v>0.2488707422850964</v>
-      </c>
-      <c r="R3">
-        <v>0.2488707422850964</v>
-      </c>
-      <c r="S3">
-        <v>0.07411697452611378</v>
-      </c>
-      <c r="T3">
-        <v>0.07411697452611378</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.073382</v>
+      </c>
+      <c r="H10">
+        <v>0.220146</v>
+      </c>
+      <c r="I10">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J10">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.013267</v>
+      </c>
+      <c r="N10">
+        <v>0.039801</v>
+      </c>
+      <c r="O10">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="P10">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="Q10">
+        <v>0.0009735589940000001</v>
+      </c>
+      <c r="R10">
+        <v>0.008762030946000001</v>
+      </c>
+      <c r="S10">
+        <v>0.0002103292784826721</v>
+      </c>
+      <c r="T10">
+        <v>0.0002103292784826721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.073382</v>
+      </c>
+      <c r="H11">
+        <v>0.220146</v>
+      </c>
+      <c r="I11">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J11">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.792929999999999</v>
+      </c>
+      <c r="N11">
+        <v>17.37879</v>
+      </c>
+      <c r="O11">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="P11">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="Q11">
+        <v>0.4250967892599999</v>
+      </c>
+      <c r="R11">
+        <v>3.82587110334</v>
+      </c>
+      <c r="S11">
+        <v>0.09183860610542138</v>
+      </c>
+      <c r="T11">
+        <v>0.09183860610542138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.073382</v>
+      </c>
+      <c r="H12">
+        <v>0.220146</v>
+      </c>
+      <c r="I12">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J12">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.05870933333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.176128</v>
+      </c>
+      <c r="O12">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="P12">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="Q12">
+        <v>0.004308208298666667</v>
+      </c>
+      <c r="R12">
+        <v>0.038773874688</v>
+      </c>
+      <c r="S12">
+        <v>0.0009307523720659299</v>
+      </c>
+      <c r="T12">
+        <v>0.0009307523720659299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.073382</v>
+      </c>
+      <c r="H13">
+        <v>0.220146</v>
+      </c>
+      <c r="I13">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J13">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5062776666666666</v>
+      </c>
+      <c r="N13">
+        <v>1.518833</v>
+      </c>
+      <c r="O13">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="P13">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="Q13">
+        <v>0.03715166773533333</v>
+      </c>
+      <c r="R13">
+        <v>0.334365009618</v>
+      </c>
+      <c r="S13">
+        <v>0.008026307103481628</v>
+      </c>
+      <c r="T13">
+        <v>0.008026307103481628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H14">
+        <v>1.685514</v>
+      </c>
+      <c r="I14">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J14">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.013267</v>
+      </c>
+      <c r="N14">
+        <v>0.039801</v>
+      </c>
+      <c r="O14">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="P14">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="Q14">
+        <v>0.007453904746</v>
+      </c>
+      <c r="R14">
+        <v>0.067085142714</v>
+      </c>
+      <c r="S14">
+        <v>0.001610353781092741</v>
+      </c>
+      <c r="T14">
+        <v>0.001610353781092741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H15">
+        <v>1.685514</v>
+      </c>
+      <c r="I15">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J15">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.792929999999999</v>
+      </c>
+      <c r="N15">
+        <v>17.37879</v>
+      </c>
+      <c r="O15">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="P15">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="Q15">
+        <v>3.254688205339999</v>
+      </c>
+      <c r="R15">
+        <v>29.29219384806</v>
+      </c>
+      <c r="S15">
+        <v>0.7031481668128114</v>
+      </c>
+      <c r="T15">
+        <v>0.7031481668128116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H16">
+        <v>1.685514</v>
+      </c>
+      <c r="I16">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J16">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.05870933333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.176128</v>
+      </c>
+      <c r="O16">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="P16">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="Q16">
+        <v>0.03298513442133333</v>
+      </c>
+      <c r="R16">
+        <v>0.296866209792</v>
+      </c>
+      <c r="S16">
+        <v>0.007126162426981791</v>
+      </c>
+      <c r="T16">
+        <v>0.007126162426981792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H17">
+        <v>1.685514</v>
+      </c>
+      <c r="I17">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J17">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5062776666666666</v>
+      </c>
+      <c r="N17">
+        <v>1.518833</v>
+      </c>
+      <c r="O17">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="P17">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="Q17">
+        <v>0.2844460316846666</v>
+      </c>
+      <c r="R17">
+        <v>2.560014285162</v>
+      </c>
+      <c r="S17">
+        <v>0.06145218623648729</v>
+      </c>
+      <c r="T17">
+        <v>0.06145218623648729</v>
       </c>
     </row>
   </sheetData>
